--- a/src/test/resources/testData/PracticeTest.xlsx
+++ b/src/test/resources/testData/PracticeTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jitvishw\git\Jitendra-02091993\Jitendra-02091993\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jitvishw\git\Jitendra-02091993\Jitendra-02091993\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9257830-A549-4C29-AE6F-3F42316EB76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A46365-CFAB-4F21-879B-2937FC3277E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{88770803-6356-4D28-BC6C-08070643141E}"/>
   </bookViews>
@@ -16,28 +16,17 @@
     <sheet name="S1" sheetId="1" r:id="rId1"/>
     <sheet name="S2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Generic</t>
   </si>
@@ -63,12 +52,6 @@
     <t>Value6</t>
   </si>
   <si>
-    <t>ContinueError</t>
-  </si>
-  <si>
-    <t>Please select an option before continuing.</t>
-  </si>
-  <si>
     <t>UsernamError</t>
   </si>
   <si>
@@ -123,16 +106,22 @@
     <t>Password@90</t>
   </si>
   <si>
-    <t>UsernamePlaceholder</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>PasswordPlaceholder</t>
   </si>
   <si>
     <t>Scenario</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Kartik</t>
   </si>
 </sst>
 </file>
@@ -531,7 +520,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +530,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -570,10 +559,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -581,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -592,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -603,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -614,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -625,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -636,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -647,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -658,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -669,15 +661,15 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -691,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
